--- a/卒業課題/基本設計・詳細設計/テーブル定義書(卒業課題).xlsx
+++ b/卒業課題/基本設計・詳細設計/テーブル定義書(卒業課題).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="95">
   <si>
     <t>この書類はNumbersから書き出されました。各表は  Excelワークシート に変換されました。各Numbersシート上のその他すべてのオブジェクトはそれぞれ別個のワークシートに配置されました。Excelでは数式の計算結果が異なる可能性があるので注意してください。</t>
   </si>
@@ -65,6 +65,14 @@
   </si>
   <si>
     <t>山崎</t>
+  </si>
+  <si>
+    <t>■改版箇所
+　テーブル：カレンダーテーブル
+　変更内容：「年・月・日」の削除
+　　　　　　「予定開始日・予定終了日」の追加
+■改版理由
+日をまたぐ予定を登録出来るようにするため</t>
   </si>
   <si>
     <t>ユーザーテーブル</t>
@@ -256,23 +264,22 @@
     <t>memo</t>
   </si>
   <si>
-    <t>予定開始時刻</t>
-  </si>
-  <si>
-    <t>start_time</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>「終日フラグ」が「1」の場合は空欄とする
-「hh:mm」形式で反映</t>
-  </si>
-  <si>
-    <t>予定終了時刻</t>
-  </si>
-  <si>
-    <t>end_time</t>
+    <t>予定開始日</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>「yyyy/MM/dd」の形式で反映</t>
+  </si>
+  <si>
+    <t>予定終了日</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
   <si>
     <t>終日フラグ</t>
@@ -286,31 +293,33 @@
 1:終日</t>
   </si>
   <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>月</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>予定開始時刻</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>「終日フラグ」が「1」の場合は空欄とする
+「hh:mm」形式で反映</t>
+  </si>
+  <si>
+    <t>予定終了時刻</t>
+  </si>
+  <si>
+    <t>end_time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="60" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -393,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -481,21 +490,6 @@
         <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
@@ -527,7 +521,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -579,12 +573,12 @@
     <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="59" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="60" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -624,22 +618,22 @@
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -663,13 +657,16 @@
     <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="60" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1797,7 +1794,7 @@
     </row>
     <row r="11">
       <c r="B11" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1808,12 +1805,12 @@
         <v>5</v>
       </c>
       <c r="D12" t="s" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -1824,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="D14" t="s" s="5">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1841,13 +1838,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G23"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.6" defaultRowHeight="24.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="19.6016" style="6" customWidth="1"/>
+    <col min="1" max="5" width="19.6016" style="6" customWidth="1"/>
+    <col min="6" max="6" width="25.4062" style="6" customWidth="1"/>
+    <col min="7" max="7" width="19.6016" style="6" customWidth="1"/>
     <col min="8" max="16384" width="19.6016" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2045,9 +2044,9 @@
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
     <row r="22" ht="20.45" customHeight="1">
@@ -2060,9 +2059,9 @@
       <c r="C22" t="s" s="16">
         <v>12</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="17"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
       <c r="G22" t="s" s="16">
         <v>13</v>
       </c>
@@ -2071,25 +2070,53 @@
       <c r="A23" t="s" s="16">
         <v>14</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B23" s="17">
         <v>44886</v>
       </c>
       <c r="C23" t="s" s="16">
         <v>15</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="17"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
       <c r="G23" t="s" s="16">
         <v>16</v>
       </c>
     </row>
+    <row r="24" ht="122.45" customHeight="1">
+      <c r="A24" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="B24" s="18">
+        <v>44890</v>
+      </c>
+      <c r="C24" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" ht="20.45" customHeight="1">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="C8:F10"/>
     <mergeCell ref="B13:F17"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -2121,17 +2148,17 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" t="s" s="22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s" s="22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s" s="22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="23">
         <v>44886</v>
@@ -2149,13 +2176,13 @@
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" t="s" s="22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s" s="22">
         <v>16</v>
       </c>
       <c r="E2" t="s" s="22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="24"/>
@@ -2169,11 +2196,11 @@
     </row>
     <row r="3" ht="18.8" customHeight="1">
       <c r="A3" t="s" s="20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" t="s" s="26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -2269,46 +2296,46 @@
     </row>
     <row r="9" ht="37.45" customHeight="1">
       <c r="A9" t="s" s="32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s" s="33">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s" s="33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s" s="33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="19.15" customHeight="1">
@@ -2316,39 +2343,39 @@
         <v>1</v>
       </c>
       <c r="B10" t="s" s="35">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s" s="35">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s" s="35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="36">
         <v>100</v>
       </c>
       <c r="F10" t="s" s="35">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="35">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="35">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s" s="35">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s" s="35">
         <v>45</v>
-      </c>
-      <c r="I10" t="s" s="35">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s" s="35">
-        <v>44</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" t="s" s="35">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" s="37"/>
       <c r="N10" t="s" s="35">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="18.3" customHeight="1">
@@ -2356,35 +2383,35 @@
         <v>2</v>
       </c>
       <c r="B11" t="s" s="39">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s" s="39">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s" s="39">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11" s="40">
         <v>100</v>
       </c>
       <c r="F11" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" t="s" s="39">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
@@ -2394,35 +2421,35 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="39">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s" s="39">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" t="s" s="39">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E12" s="40">
         <v>255</v>
       </c>
       <c r="F12" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" t="s" s="39">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -2432,35 +2459,35 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="39">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s" s="39">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s" s="39">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E13" s="40">
         <v>255</v>
       </c>
       <c r="F13" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="25"/>
       <c r="L13" t="s" s="39">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
@@ -2470,37 +2497,37 @@
         <v>5</v>
       </c>
       <c r="B14" t="s" s="39">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s" s="39">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s" s="39">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E14" s="40">
         <v>1</v>
       </c>
       <c r="F14" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="39">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s" s="39">
         <v>45</v>
       </c>
-      <c r="I14" t="s" s="39">
-        <v>44</v>
-      </c>
       <c r="J14" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="41">
         <v>0</v>
       </c>
       <c r="L14" t="s" s="39">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" s="25"/>
@@ -2510,37 +2537,37 @@
         <v>6</v>
       </c>
       <c r="B15" t="s" s="39">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s" s="39">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s" s="39">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="39">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s" s="39">
         <v>45</v>
       </c>
-      <c r="I15" t="s" s="39">
-        <v>44</v>
-      </c>
       <c r="J15" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="25"/>
       <c r="L15" t="s" s="39">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" t="s" s="39">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="18.3" customHeight="1">
@@ -2548,37 +2575,37 @@
         <v>7</v>
       </c>
       <c r="B16" t="s" s="39">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s" s="39">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s" s="39">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E16" s="42"/>
       <c r="F16" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="39">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s" s="39">
         <v>45</v>
       </c>
-      <c r="I16" t="s" s="39">
-        <v>44</v>
-      </c>
       <c r="J16" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" s="25"/>
       <c r="L16" t="s" s="39">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" t="s" s="39">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="18.3" customHeight="1">
@@ -2777,17 +2804,17 @@
   <sheetData>
     <row r="1" ht="18.95" customHeight="1">
       <c r="A1" t="s" s="20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" t="s" s="22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s" s="22">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s" s="44">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="23">
         <v>44886</v>
@@ -2805,15 +2832,17 @@
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" t="s" s="22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s" s="22">
         <v>16</v>
       </c>
       <c r="E2" t="s" s="44">
-        <v>23</v>
-      </c>
-      <c r="F2" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="F2" s="45">
+        <v>44890</v>
+      </c>
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
@@ -2825,11 +2854,11 @@
     </row>
     <row r="3" ht="18.8" customHeight="1">
       <c r="A3" t="s" s="20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" t="s" s="26">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -2864,7 +2893,7 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="28"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
@@ -2912,7 +2941,7 @@
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
-      <c r="E8" s="46"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
       <c r="H8" s="31"/>
@@ -2925,46 +2954,46 @@
     </row>
     <row r="9" ht="37.45" customHeight="1">
       <c r="A9" t="s" s="32">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s" s="33">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s" s="33">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s" s="33">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s" s="47">
         <v>30</v>
       </c>
+      <c r="E9" t="s" s="48">
+        <v>31</v>
+      </c>
       <c r="F9" t="s" s="33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s" s="33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s" s="33">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s" s="33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s" s="33">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s" s="33">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s" s="33">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M9" t="s" s="33">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N9" t="s" s="33">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" ht="19.15" customHeight="1">
@@ -2972,39 +3001,39 @@
         <v>1</v>
       </c>
       <c r="B10" t="s" s="35">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s" s="35">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s" s="35">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="36">
         <v>100</v>
       </c>
       <c r="F10" t="s" s="35">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s" s="35">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s" s="35">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s" s="35">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s" s="35">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K10" s="37"/>
       <c r="L10" t="s" s="35">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M10" s="37"/>
       <c r="N10" t="s" s="35">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" ht="48.3" customHeight="1">
@@ -3012,35 +3041,35 @@
         <v>2</v>
       </c>
       <c r="B11" t="s" s="39">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s" s="39">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s" s="39">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="40">
         <v>100</v>
       </c>
       <c r="F11" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s" s="39">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s" s="39">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s" s="39">
         <v>45</v>
-      </c>
-      <c r="I11" t="s" s="39">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s" s="39">
-        <v>44</v>
       </c>
       <c r="K11" s="25"/>
       <c r="L11" t="s" s="39">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
@@ -3050,35 +3079,35 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="39">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s" s="39">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s" s="39">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E12" s="40">
         <v>255</v>
       </c>
       <c r="F12" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J12" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K12" s="25"/>
       <c r="L12" t="s" s="39">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -3088,113 +3117,113 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="39">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s" s="39">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s" s="39">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E13" s="40">
         <v>255</v>
       </c>
       <c r="F13" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J13" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K13" s="25"/>
       <c r="L13" t="s" s="39">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
     </row>
-    <row r="14" ht="33.3" customHeight="1">
+    <row r="14" ht="18.3" customHeight="1">
       <c r="A14" s="38">
         <v>5</v>
       </c>
       <c r="B14" t="s" s="39">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s" s="39">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D14" t="s" s="39">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" s="42"/>
       <c r="F14" t="s" s="39">
         <v>44</v>
       </c>
       <c r="G14" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I14" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K14" s="25"/>
       <c r="L14" t="s" s="39">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14" s="25"/>
       <c r="N14" t="s" s="39">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" ht="33.3" customHeight="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" ht="18.3" customHeight="1">
       <c r="A15" s="38">
         <v>6</v>
       </c>
       <c r="B15" t="s" s="39">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="39">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s" s="39">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="42"/>
       <c r="F15" t="s" s="39">
         <v>44</v>
       </c>
       <c r="G15" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K15" s="25"/>
       <c r="L15" t="s" s="39">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M15" s="25"/>
       <c r="N15" t="s" s="39">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="48.3" customHeight="1">
@@ -3202,192 +3231,170 @@
         <v>7</v>
       </c>
       <c r="B16" t="s" s="39">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s" s="39">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s" s="39">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" s="40">
         <v>1</v>
       </c>
       <c r="F16" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J16" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16" s="41">
         <v>0</v>
       </c>
       <c r="L16" t="s" s="39">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M16" s="25"/>
       <c r="N16" s="25"/>
     </row>
-    <row r="17" ht="18.3" customHeight="1">
+    <row r="17" ht="33.3" customHeight="1">
       <c r="A17" s="38">
         <v>8</v>
       </c>
       <c r="B17" t="s" s="39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s" s="39">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s" s="39">
-        <v>42</v>
-      </c>
-      <c r="E17" s="40">
-        <v>4</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E17" s="42"/>
       <c r="F17" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J17" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K17" s="25"/>
       <c r="L17" t="s" s="39">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" ht="18.3" customHeight="1">
+      <c r="N17" t="s" s="39">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" ht="33.3" customHeight="1">
       <c r="A18" s="38">
         <v>9</v>
       </c>
       <c r="B18" t="s" s="39">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s" s="39">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s" s="39">
         <v>91</v>
       </c>
-      <c r="D18" t="s" s="39">
-        <v>42</v>
-      </c>
-      <c r="E18" s="40">
-        <v>2</v>
-      </c>
+      <c r="E18" s="42"/>
       <c r="F18" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G18" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="39">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18" s="25"/>
       <c r="L18" t="s" s="39">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" ht="18.3" customHeight="1">
+      <c r="N18" t="s" s="39">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" ht="48.3" customHeight="1">
       <c r="A19" s="38">
         <v>10</v>
       </c>
       <c r="B19" t="s" s="39">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s" s="39">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s" s="39">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E19" s="40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="s" s="39">
         <v>44</v>
       </c>
       <c r="G19" t="s" s="39">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="39">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s" s="39">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s" s="39">
-        <v>43</v>
-      </c>
-      <c r="K19" s="25"/>
+        <v>44</v>
+      </c>
+      <c r="K19" s="41">
+        <v>0</v>
+      </c>
       <c r="L19" t="s" s="39">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M19" s="25"/>
       <c r="N19" s="25"/>
     </row>
-    <row r="20" ht="48.3" customHeight="1">
-      <c r="A20" s="38">
-        <v>11</v>
-      </c>
-      <c r="B20" t="s" s="39">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s" s="39">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s" s="39">
-        <v>42</v>
-      </c>
-      <c r="E20" s="40">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s" s="39">
-        <v>44</v>
-      </c>
-      <c r="G20" t="s" s="39">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s" s="39">
-        <v>45</v>
-      </c>
-      <c r="I20" t="s" s="39">
-        <v>44</v>
-      </c>
-      <c r="J20" t="s" s="39">
-        <v>43</v>
-      </c>
-      <c r="K20" s="41">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s" s="39">
-        <v>59</v>
-      </c>
+    <row r="20" ht="18.3" customHeight="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="25"/>
       <c r="N20" s="25"/>
     </row>
@@ -3428,7 +3435,7 @@
       <c r="B23" s="25"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
-      <c r="E23" s="42"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
@@ -3444,7 +3451,7 @@
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
-      <c r="E24" s="42"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
